--- a/biology/Zoologie/Cyrtodactylus_peguensis/Cyrtodactylus_peguensis.xlsx
+++ b/biology/Zoologie/Cyrtodactylus_peguensis/Cyrtodactylus_peguensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus peguensis est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus peguensis est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, en Thaïlande et en Malaisie péninsulaire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, en Thaïlande et en Malaisie péninsulaire.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (21 septembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (21 septembre 2012) :
 Cyrtodactylus peguensis peguensis (Boulenger, 1893)
 Cyrtodactylus peguensis zebraicus Taylor, 1962</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de pegu et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte : la ville de Pegu.
 </t>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1893 : Concluding report on the reptiles and batrachians obtained in Burma by Signor L. Fea, dealing with the collection made in Pegu and the Karin Hills in 1887–88. Annali del Museo Civico di Storia Naturale di Genova, ser. 2, vol. 13, p. 304–347 (texte intégral).
 Taylor, 1962 : New oriental reptiles. University of Kansas Science Bulletin, vol. 43, n. 7, p. 209-263 (texte intégral).</t>
